--- a/Excel/Ejemplos.xlsx
+++ b/Excel/Ejemplos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Apuntes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Pedro</t>
   </si>
@@ -371,10 +371,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -432,9 +435,12 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="str">
-        <f>VLOOKUP("Maria",A1:C5,3)</f>
-        <v>Villa 31</v>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(A3,A1:C5,2)</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
